--- a/NE_Religionen_texte.xlsx
+++ b/NE_Religionen_texte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="208">
   <si>
     <t>Gemeinde_Nr</t>
   </si>
@@ -461,172 +461,181 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Intro_Nein</t>
-  </si>
-  <si>
-    <t>Intro_Ja</t>
-  </si>
-  <si>
-    <t>Nein zum Gesetz zur Anerkennung neuer Religionsgemeinschaftenfür in Boudry: 63,8 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 62,5 Prozent Ja hat sich Cortaillod für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>83,4 Prozent der Stimmbürgerinnen und Stimmbürger von Rochefort haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt.</t>
-  </si>
-  <si>
-    <t>Mit 58 Prozent Ja hat sich Milvignes für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 61,3 Prozent Ja hat sich La Grande Béroche für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 60,7 Prozent Ja hat sich La Chaux-de-Fonds für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>58,2 Prozent der Stimmbürgerinnen und Stimmbürger von Les Planchettes haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt.</t>
-  </si>
-  <si>
-    <t>Mit 92,7 Prozent Ja hat sich La Sagne für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Nein zum Gesetz zur Anerkennung neuer Religionsgemeinschaftenfür in La Brévine: 66,4 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Brot-Plamboz. 89,9 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 73 Prozent Ja hat sich Le Cerneux-Péquignot für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 76,2 Prozent Ja hat sich La Chaux-du-Milieu für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Le Locle hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 72 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>98,1 Prozent der Stimmbürgerinnen und Stimmbürger von Les Ponts-de-Martel haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt.</t>
-  </si>
-  <si>
-    <t>Cornaux hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 89,5 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Cressier NE hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 63,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 63,3 Prozent Ja hat sich Enges für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Hauterive NE hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 85,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>52,3 Prozent der Stimmbürgerinnen und Stimmbürger von Le Landeron haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Lignières. 91,4 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>67,7 Prozent der Stimmbürgerinnen und Stimmbürger von Neuenburg haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Saint-Blaise. 70,1 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>La Tène hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 88,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Val-de-Ruz hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 75,6 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Gesetz zur Anerkennung neuer Religionsgemeinschaftenfür in La Côte-aux-Fées: 58,1 Prozent haben die Vorlage abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Les Verrières. 85,8 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Val-de-Travers hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 59,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Les habitants de Boudry s'opposent à la loi permettant la reconnaissane de nouvelles communautés religieuses avec 63,8 pour cent de non.</t>
-  </si>
-  <si>
-    <t>Les habitants de Cortaillod approuvent avec 62,5 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>A Rochefort, les habitants disent oui à 83,4 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi.</t>
-  </si>
-  <si>
-    <t>Les habitants de Milvignes approuvent avec 58 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de La Grande Béroche approuvent avec 61,3 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de La Chaux-de-Fonds approuvent avec 60,7 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Aux Planchettes, les habitants disent oui à 58,2 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi.</t>
-  </si>
-  <si>
-    <t>Les habitants de La Sagne approuvent avec 92,7 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de La Brévine s'opposent à la loi permettant la reconnaissane de nouvelles communautés religieuses avec 66,4 pour cent de non.</t>
-  </si>
-  <si>
-    <t>A Brot-Plamboz, les habitants disent non à 89,9 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses</t>
-  </si>
-  <si>
-    <t>Les habitants du Cerneux-Péquignot approuvent avec 73 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de La Chaux-du-Milieu approuvent avec 76,2 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants du Locle acceptent avec 72 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Aux Ponts-de-Martel, les habitants disent oui à 98,1 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi.</t>
-  </si>
-  <si>
-    <t>Les habitants de Cornaux acceptent avec 89,5 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de Cressier (NE) rejettent la loi permettant la reconnaissane de nouvelles communautés religieuses avec 63,4 pour cent de non.</t>
-  </si>
-  <si>
-    <t>Les habitants d'Enges approuvent avec 63,3 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de Hauterive (NE) acceptent avec 85,1 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Au Landeron, les habitants disent oui à 52,3 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi.</t>
-  </si>
-  <si>
-    <t>A Lignières, les habitants disent non à 91,4 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses</t>
-  </si>
-  <si>
-    <t>A Neuchâtel, les habitants disent oui à 67,7 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi.</t>
-  </si>
-  <si>
-    <t>A Saint-Blaise, les habitants disent non à 70,1 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses</t>
-  </si>
-  <si>
-    <t>Les habitants de La Tène acceptent avec 88,6 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
-  </si>
-  <si>
-    <t>Les habitants de Val-de-Ruz rejettent la loi permettant la reconnaissane de nouvelles communautés religieuses avec 75,6 pour cent de non.</t>
-  </si>
-  <si>
-    <t>Les habitants de La Côte-aux-Fées s'opposent à la loi permettant la reconnaissane de nouvelles communautés religieuses avec 58,1 pour cent de non.</t>
-  </si>
-  <si>
-    <t>Aux Verrières, les habitants disent non à 85,8 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses</t>
-  </si>
-  <si>
-    <t>Les habitants de Val-de-Travers acceptent avec 59,1 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum.</t>
+    <t>Intro_Nein;KantonPhrase_Nein_Ja</t>
+  </si>
+  <si>
+    <t>Intro_Ja;KantonPhrase_Ja_Ja</t>
+  </si>
+  <si>
+    <t>Intro_Ja;KantonPhrase_Highest_Yes_Kant</t>
+  </si>
+  <si>
+    <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
+  </si>
+  <si>
+    <t>Nein zum Gesetz zur Anerkennung neuer Religionsgemeinschaftenfür in Boudry: 63,8 Prozent haben die Vorlage abgelehnt. Boudry hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 62,5 Prozent Ja hat sich Cortaillod für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. Cortaillod hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>83,4 Prozent der Stimmbürgerinnen und Stimmbürger von Rochefort haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt. Rochefort hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 58 Prozent Ja hat sich Milvignes für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. Milvignes hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 61,3 Prozent Ja hat sich La Grande Béroche für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. La Grande Béroche hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 60,7 Prozent Ja hat sich La Chaux-de-Fonds für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. La Chaux-de-Fonds hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>58,2 Prozent der Stimmbürgerinnen und Stimmbürger von Les Planchettes haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt. Les Planchettes hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 92,7 Prozent Ja hat sich La Sagne für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. La Sagne hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Gesetz zur Anerkennung neuer Religionsgemeinschaftenfür in La Brévine: 66,4 Prozent haben die Vorlage abgelehnt. La Brévine hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Brot-Plamboz. 89,9 Prozent haben sie verworfen. Brot-Plamboz hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 73 Prozent Ja hat sich Le Cerneux-Péquignot für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. Le Cerneux-Péquignot hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 76,2 Prozent Ja hat sich La Chaux-du-Milieu für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. La Chaux-du-Milieu hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Le Locle hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 72 Prozent angenommen. Le Locle hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>98,1 Prozent der Stimmbürgerinnen und Stimmbürger von Les Ponts-de-Martel haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt. Les Ponts-de-Martel hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Cornaux hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 89,5 Prozent angenommen. Cornaux hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Cressier NE hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 63,4 Prozent abgelehnt. Cressier NE hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 63,3 Prozent Ja hat sich Enges für das Gesetz zur Anerkennung neuer Religionsgemeinschaften ausgesprochen. Enges hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Hauterive NE hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 85,1 Prozent angenommen. Hauterive NE hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>52,3 Prozent der Stimmbürgerinnen und Stimmbürger von Le Landeron haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt. Le Landeron hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Lignières. 91,4 Prozent haben sie verworfen. Lignières hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>67,7 Prozent der Stimmbürgerinnen und Stimmbürger von Neuenburg haben dem Gesetz zur Anerkennung neuer Religionsgemeinschaften zugestimmt. Neuenburg hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Saint-Blaise. 70,1 Prozent haben sie verworfen. Saint-Blaise hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>La Tène hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 88,6 Prozent angenommen. La Tène hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Val-de-Ruz hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 75,6 Prozent abgelehnt. Val-de-Ruz hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Gesetz zur Anerkennung neuer Religionsgemeinschaftenfür in La Côte-aux-Fées: 58,1 Prozent haben die Vorlage abgelehnt. La Côte-aux-Fées hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Gesetz zur Anerkennung neuer Religionsgemeinschaften in Les Verrières. 85,8 Prozent haben sie verworfen. Les Verrières hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Val-de-Travers hat das Gesetz zur Anerkennung neuer Religionsgemeinschaften mit 59,1 Prozent angenommen. Val-de-Travers hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Les habitants de Boudry s'opposent à la loi permettant la reconnaissane de nouvelles communautés religieuses avec 63,8 pour cent de non. Boudry a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de Cortaillod approuvent avec 62,5 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Cortaillod a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>A Rochefort, les habitants disent oui à 83,4 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi. Rochefort a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de Milvignes approuvent avec 58 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Milvignes a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Grande Béroche approuvent avec 61,3 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. La Grande Béroche a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Chaux-de-Fonds approuvent avec 60,7 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. La Chaux-de-Fonds a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Aux Planchettes, les habitants disent oui à 58,2 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi. Les Planchettes a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Sagne approuvent avec 92,7 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. La Sagne a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Brévine s'opposent à la loi permettant la reconnaissane de nouvelles communautés religieuses avec 66,4 pour cent de non. La Brévine a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>A Brot-Plamboz, les habitants disent non à 89,9 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses Brot-Plamboz a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Les habitants du Cerneux-Péquignot approuvent avec 73 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Le Cerneux-Péquignot a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Chaux-du-Milieu approuvent avec 76,2 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. La Chaux-du-Milieu a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants du Locle acceptent avec 72 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Le Locle a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Aux Ponts-de-Martel, les habitants disent oui à 98,1 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi. C'est aux Ponts-de-Martel que la plus forte acceptation de cet objet a été enregistrée.</t>
+  </si>
+  <si>
+    <t>Les habitants de Cornaux acceptent avec 89,5 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Cornaux a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de Cressier (NE) rejettent la loi permettant la reconnaissane de nouvelles communautés religieuses avec 63,4 pour cent de non. Cressier (NE) a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Les habitants d'Enges approuvent avec 63,3 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Enges a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de Hauterive (NE) acceptent avec 85,1 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Hauterive (NE) a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Au Landeron, les habitants disent oui à 52,3 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi. Le Landeron a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>A Lignières, les habitants disent non à 91,4 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses C'est à Lignières que le refus le plus net de cet objet a été enregistré.</t>
+  </si>
+  <si>
+    <t>A Neuchâtel, les habitants disent oui à 67,7 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses. Un référendum avait été lancé contre cette loi. Neuchâtel a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>A Saint-Blaise, les habitants disent non à 70,1 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses Saint-Blaise a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Tène acceptent avec 88,6 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. La Tène a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de Val-de-Ruz rejettent la loi permettant la reconnaissane de nouvelles communautés religieuses avec 75,6 pour cent de non. Val-de-Ruz a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de La Côte-aux-Fées s'opposent à la loi permettant la reconnaissane de nouvelles communautés religieuses avec 58,1 pour cent de non. La Côte-aux-Fées a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Aux Verrières, les habitants disent non à 85,8 pour cent à la loi permettant la reconnaissane de nouvelles communautés religieuses Les Verrières a rejeté le texte, contrairement au canton.</t>
+  </si>
+  <si>
+    <t>Les habitants de Val-de-Travers acceptent avec 59,1 pour cent de oui la loi permettant la reconnaissance de nouvelles communautés religieuses. La nouvelle loi était combattue par un référendum. Val-de-Travers a approuvé le texte, tout comme le canton.</t>
+  </si>
+  <si>
+    <t>NA NA</t>
   </si>
 </sst>
 </file>
@@ -883,13 +892,13 @@
         <v>149</v>
       </c>
       <c r="AG2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AH2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI2" t="e">
-        <v>#N/A</v>
+        <v>180</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>207</v>
       </c>
       <c r="AJ2" t="n">
         <v>36.21222398070691</v>
@@ -993,13 +1002,13 @@
         <v>150</v>
       </c>
       <c r="AG3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI3" t="e">
-        <v>#N/A</v>
+        <v>181</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>207</v>
       </c>
       <c r="AJ3" t="n">
         <v>62.54146174082123</v>
@@ -1103,13 +1112,13 @@
         <v>150</v>
       </c>
       <c r="AG4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AH4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI4" t="e">
-        <v>#N/A</v>
+        <v>182</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>207</v>
       </c>
       <c r="AJ4" t="n">
         <v>83.36150688239556</v>
@@ -1213,13 +1222,13 @@
         <v>150</v>
       </c>
       <c r="AG5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AH5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI5" t="e">
-        <v>#N/A</v>
+        <v>183</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>207</v>
       </c>
       <c r="AJ5" t="n">
         <v>58.00495768869134</v>
@@ -1323,13 +1332,13 @@
         <v>150</v>
       </c>
       <c r="AG6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AH6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI6" t="e">
-        <v>#N/A</v>
+        <v>184</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>207</v>
       </c>
       <c r="AJ6" t="n">
         <v>61.286374762034264</v>
@@ -1433,13 +1442,13 @@
         <v>150</v>
       </c>
       <c r="AG7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AH7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI7" t="e">
-        <v>#N/A</v>
+        <v>185</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>207</v>
       </c>
       <c r="AJ7" t="n">
         <v>60.74397979922399</v>
@@ -1543,13 +1552,13 @@
         <v>150</v>
       </c>
       <c r="AG8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AH8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI8" t="e">
-        <v>#N/A</v>
+        <v>186</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>207</v>
       </c>
       <c r="AJ8" t="n">
         <v>58.23063642317081</v>
@@ -1653,13 +1662,13 @@
         <v>150</v>
       </c>
       <c r="AG9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AH9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI9" t="e">
-        <v>#N/A</v>
+        <v>187</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>207</v>
       </c>
       <c r="AJ9" t="n">
         <v>92.71133910441381</v>
@@ -1763,13 +1772,13 @@
         <v>149</v>
       </c>
       <c r="AG10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AH10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI10" t="e">
-        <v>#N/A</v>
+        <v>188</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>207</v>
       </c>
       <c r="AJ10" t="n">
         <v>33.61459132361715</v>
@@ -1873,13 +1882,13 @@
         <v>149</v>
       </c>
       <c r="AG11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AH11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI11" t="e">
-        <v>#N/A</v>
+        <v>189</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>207</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.086299892125135</v>
@@ -1983,13 +1992,13 @@
         <v>150</v>
       </c>
       <c r="AG12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AH12" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI12" t="e">
-        <v>#N/A</v>
+        <v>190</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>207</v>
       </c>
       <c r="AJ12" t="n">
         <v>73.03198394901452</v>
@@ -2093,13 +2102,13 @@
         <v>150</v>
       </c>
       <c r="AG13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AH13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI13" t="e">
-        <v>#N/A</v>
+        <v>191</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>207</v>
       </c>
       <c r="AJ13" t="n">
         <v>76.19967545011977</v>
@@ -2203,13 +2212,13 @@
         <v>150</v>
       </c>
       <c r="AG14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AH14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI14" t="e">
-        <v>#N/A</v>
+        <v>192</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>207</v>
       </c>
       <c r="AJ14" t="n">
         <v>71.95191757298225</v>
@@ -2304,22 +2313,22 @@
         <v>#N/A</v>
       </c>
       <c r="AD15" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="AE15" t="s">
         <v>148</v>
       </c>
       <c r="AF15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AH15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI15" t="e">
-        <v>#N/A</v>
+        <v>193</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>207</v>
       </c>
       <c r="AJ15" t="n">
         <v>98.05194805194805</v>
@@ -2423,13 +2432,13 @@
         <v>150</v>
       </c>
       <c r="AG16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI16" t="e">
-        <v>#N/A</v>
+        <v>194</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>207</v>
       </c>
       <c r="AJ16" t="n">
         <v>89.48677368302057</v>
@@ -2533,13 +2542,13 @@
         <v>149</v>
       </c>
       <c r="AG17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AH17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI17" t="e">
-        <v>#N/A</v>
+        <v>195</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>207</v>
       </c>
       <c r="AJ17" t="n">
         <v>36.633663366336634</v>
@@ -2643,13 +2652,13 @@
         <v>150</v>
       </c>
       <c r="AG18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AH18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI18" t="e">
-        <v>#N/A</v>
+        <v>196</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>207</v>
       </c>
       <c r="AJ18" t="n">
         <v>63.29430132708821</v>
@@ -2753,13 +2762,13 @@
         <v>150</v>
       </c>
       <c r="AG19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AH19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI19" t="e">
-        <v>#N/A</v>
+        <v>197</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>207</v>
       </c>
       <c r="AJ19" t="n">
         <v>85.05694760820046</v>
@@ -2863,13 +2872,13 @@
         <v>150</v>
       </c>
       <c r="AG20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AH20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI20" t="e">
-        <v>#N/A</v>
+        <v>198</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>207</v>
       </c>
       <c r="AJ20" t="n">
         <v>52.264788076385656</v>
@@ -2967,19 +2976,19 @@
         <v>148</v>
       </c>
       <c r="AE21" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="AF21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI21" t="e">
-        <v>#N/A</v>
+        <v>199</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>207</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.62840342579573</v>
@@ -3083,13 +3092,13 @@
         <v>150</v>
       </c>
       <c r="AG22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AH22" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI22" t="e">
-        <v>#N/A</v>
+        <v>200</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>207</v>
       </c>
       <c r="AJ22" t="n">
         <v>67.69104232092118</v>
@@ -3193,13 +3202,13 @@
         <v>149</v>
       </c>
       <c r="AG23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AH23" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI23" t="e">
-        <v>#N/A</v>
+        <v>201</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>207</v>
       </c>
       <c r="AJ23" t="n">
         <v>29.852862967558945</v>
@@ -3303,13 +3312,13 @@
         <v>150</v>
       </c>
       <c r="AG24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AH24" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI24" t="e">
-        <v>#N/A</v>
+        <v>202</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>207</v>
       </c>
       <c r="AJ24" t="n">
         <v>88.56135853892982</v>
@@ -3413,13 +3422,13 @@
         <v>149</v>
       </c>
       <c r="AG25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH25" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI25" t="e">
-        <v>#N/A</v>
+        <v>203</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>207</v>
       </c>
       <c r="AJ25" t="n">
         <v>24.41029656454928</v>
@@ -3523,13 +3532,13 @@
         <v>149</v>
       </c>
       <c r="AG26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AH26" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI26" t="e">
-        <v>#N/A</v>
+        <v>204</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>207</v>
       </c>
       <c r="AJ26" t="n">
         <v>41.93519985913013</v>
@@ -3633,13 +3642,13 @@
         <v>149</v>
       </c>
       <c r="AG27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AH27" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI27" t="e">
-        <v>#N/A</v>
+        <v>205</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>207</v>
       </c>
       <c r="AJ27" t="n">
         <v>14.216408212769643</v>
@@ -3743,13 +3752,13 @@
         <v>150</v>
       </c>
       <c r="AG28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AH28" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI28" t="e">
-        <v>#N/A</v>
+        <v>206</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>207</v>
       </c>
       <c r="AJ28" t="n">
         <v>59.10091432441585</v>
